--- a/Day 6.xlsx
+++ b/Day 6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rickesh\Documents\GitHub\AdventOfCode_2023_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4B1D9B-7297-4039-AD21-C41060A747CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55EA34F-1BAE-430E-893B-20D287025EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -3998,8 +3998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4122,8 +4122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3FAF77-84C8-4790-872B-FF3390200377}">
   <dimension ref="A1:K459"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
